--- a/RawData/Post Study/CS715 Post User Study - SY_October 22, 2025_18.35.xlsx
+++ b/RawData/Post Study/CS715 Post User Study - SY_October 22, 2025_18.35.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eason\Desktop\AucklandUni\COMPSCI 715\Data\RawData\Post Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eason\Desktop\AucklandUni\CS715-data-analysis\RawData\Post Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AAACA5-2782-4EC3-B5D1-E4C990630564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F127FC-DB31-4AAB-8399-D53CB56E4CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,9 +331,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>Gallon Zhou</t>
-  </si>
-  <si>
     <t>The fishing, I need to feed my family</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
   </si>
   <si>
     <t>R_4rZtnO1bH3mhjIE</t>
-  </si>
-  <si>
-    <t>Joshua Tan</t>
   </si>
   <si>
     <t>I like how the sensors were accurately capturing the movement and the graphics matched.
@@ -377,187 +371,193 @@
     <t>R_4CC8GKTHyWxtmR0</t>
   </si>
   <si>
-    <t xml:space="preserve">Ann Lowe
+    <t>It was fun trying to gkeep my reps in beat</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>I feel that I did alright - better than without music</t>
+  </si>
+  <si>
+    <t>Same as previous activity answer</t>
+  </si>
+  <si>
+    <t>R_9gqhCQp9vzabgdt</t>
+  </si>
+  <si>
+    <t>GOTTA CATCH THE FISH</t>
+  </si>
+  <si>
+    <t>THE WEIGHTS WERE TOO HEAVY &amp;gt;:(</t>
+  </si>
+  <si>
+    <t>I FEEL GOOD, could be better</t>
+  </si>
+  <si>
+    <t>getting buff!</t>
+  </si>
+  <si>
+    <t>Too much, mentioned earlier it was too heavy my arms are gone</t>
+  </si>
+  <si>
+    <t>Have the visual indicator on the fish, would be cool to not look at the graph but keep the fish in a range by bicep curls would be cool</t>
+  </si>
+  <si>
+    <t>R_90e3ry69s5EJbDC</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>really tired, and same as previous</t>
+  </si>
+  <si>
+    <t>R_42QgwJ9pDHfJqJ6</t>
+  </si>
+  <si>
+    <t>The added music</t>
+  </si>
+  <si>
+    <t>R_9gh94evJwVmtwkF</t>
+  </si>
+  <si>
+    <t>music, the enviroment set up, and the visual feedback</t>
+  </si>
+  <si>
+    <t>the VR handle attached is quite uncomfortable during the activity.</t>
+  </si>
+  <si>
+    <t>its really good, and i think i did well.</t>
+  </si>
+  <si>
+    <t>trying my best, but i just did workout yesterday so my arms is really tired while doing this</t>
+  </si>
+  <si>
+    <t>R_9az0TS3Y2znG6SB</t>
+  </si>
+  <si>
+    <t>Same as last</t>
+  </si>
+  <si>
+    <t>Same as Last</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>R_9R2sA5x3tSg7d85</t>
+  </si>
+  <si>
+    <t>I liked the music</t>
+  </si>
+  <si>
+    <t>How it started to hurt</t>
+  </si>
+  <si>
+    <t>I feel like i definitely couldnt done better</t>
+  </si>
+  <si>
+    <t>Motivating me to exercise more, especially if i got to pick the music</t>
+  </si>
+  <si>
+    <t>I put a lot of effort because I am competitive.</t>
+  </si>
+  <si>
+    <t>I would like to try out with different music.</t>
+  </si>
+  <si>
+    <t>R_40DuROsM4GbZeAT</t>
+  </si>
+  <si>
+    <t>useful for my health</t>
+  </si>
+  <si>
+    <t>I think can get a score list</t>
+  </si>
+  <si>
+    <t>7/10</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>If have a score list I think would have lot of fun</t>
+  </si>
+  <si>
+    <t>R_9fAFzR0X6SlQDVT</t>
+  </si>
+  <si>
+    <t>It was very engaging and was familiar with this excersise</t>
+  </si>
+  <si>
+    <t>Nothing in particular</t>
+  </si>
+  <si>
+    <t>Think i did average</t>
+  </si>
+  <si>
+    <t>Putted in decent effort</t>
+  </si>
+  <si>
+    <t>Nothing of note</t>
+  </si>
+  <si>
+    <t>R_4loBOnRAbzw7pTA</t>
+  </si>
+  <si>
+    <t>Same as before</t>
+  </si>
+  <si>
+    <t>I did not enjoy the music choices ngl</t>
+  </si>
+  <si>
+    <t>I think I did slightly better because of the mucis</t>
+  </si>
+  <si>
+    <t>Better music!</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
 </t>
   </si>
   <si>
-    <t>It was fun trying to gkeep my reps in beat</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>I feel that I did alright - better than without music</t>
-  </si>
-  <si>
-    <t>Same as previous activity answer</t>
-  </si>
-  <si>
-    <t>R_9gqhCQp9vzabgdt</t>
-  </si>
-  <si>
-    <t>Benjamin Qian</t>
-  </si>
-  <si>
-    <t>GOTTA CATCH THE FISH</t>
-  </si>
-  <si>
-    <t>THE WEIGHTS WERE TOO HEAVY &amp;gt;:(</t>
-  </si>
-  <si>
-    <t>I FEEL GOOD, could be better</t>
-  </si>
-  <si>
-    <t>getting buff!</t>
-  </si>
-  <si>
-    <t>Too much, mentioned earlier it was too heavy my arms are gone</t>
-  </si>
-  <si>
-    <t>Have the visual indicator on the fish, would be cool to not look at the graph but keep the fish in a range by bicep curls would be cool</t>
-  </si>
-  <si>
-    <t>R_90e3ry69s5EJbDC</t>
-  </si>
-  <si>
-    <t>John M</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>really tired, and same as previous</t>
-  </si>
-  <si>
-    <t>R_42QgwJ9pDHfJqJ6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stephen fang
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6
 </t>
   </si>
   <si>
-    <t>The added music</t>
-  </si>
-  <si>
-    <t>R_9gh94evJwVmtwkF</t>
-  </si>
-  <si>
-    <t>jacob sun</t>
-  </si>
-  <si>
-    <t>music, the enviroment set up, and the visual feedback</t>
-  </si>
-  <si>
-    <t>the VR handle attached is quite uncomfortable during the activity.</t>
-  </si>
-  <si>
-    <t>its really good, and i think i did well.</t>
-  </si>
-  <si>
-    <t>trying my best, but i just did workout yesterday so my arms is really tired while doing this</t>
-  </si>
-  <si>
-    <t>R_9az0TS3Y2znG6SB</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Same as last</t>
-  </si>
-  <si>
-    <t>Same as Last</t>
-  </si>
-  <si>
-    <t>Same</t>
-  </si>
-  <si>
-    <t>R_9R2sA5x3tSg7d85</t>
-  </si>
-  <si>
-    <t>Amanda Lowe</t>
-  </si>
-  <si>
-    <t>I liked the music</t>
-  </si>
-  <si>
-    <t>How it started to hurt</t>
-  </si>
-  <si>
-    <t>I feel like i definitely couldnt done better</t>
-  </si>
-  <si>
-    <t>Motivating me to exercise more, especially if i got to pick the music</t>
-  </si>
-  <si>
-    <t>I put a lot of effort because I am competitive.</t>
-  </si>
-  <si>
-    <t>I would like to try out with different music.</t>
-  </si>
-  <si>
-    <t>R_40DuROsM4GbZeAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raymond
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10
 </t>
   </si>
   <si>
-    <t>useful for my health</t>
-  </si>
-  <si>
-    <t>I think can get a score list</t>
-  </si>
-  <si>
-    <t>7/10</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>If have a score list I think would have lot of fun</t>
-  </si>
-  <si>
-    <t>R_9fAFzR0X6SlQDVT</t>
-  </si>
-  <si>
-    <t>Aidan</t>
-  </si>
-  <si>
-    <t>It was very engaging and was familiar with this excersise</t>
-  </si>
-  <si>
-    <t>Nothing in particular</t>
-  </si>
-  <si>
-    <t>Think i did average</t>
-  </si>
-  <si>
-    <t>Putted in decent effort</t>
-  </si>
-  <si>
-    <t>Nothing of note</t>
-  </si>
-  <si>
-    <t>R_4loBOnRAbzw7pTA</t>
-  </si>
-  <si>
-    <t>Owen Li</t>
-  </si>
-  <si>
-    <t>Same as before</t>
-  </si>
-  <si>
-    <t>I did not enjoy the music choices ngl</t>
-  </si>
-  <si>
-    <t>I think I did slightly better because of the mucis</t>
-  </si>
-  <si>
-    <t>Better music!</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,7 +1284,7 @@
         <v>101</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="S3">
         <v>2</v>
@@ -1362,22 +1362,22 @@
         <v>1</v>
       </c>
       <c r="AR3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AX3">
         <v>17</v>
@@ -1409,7 +1409,7 @@
         <v>45943.750102175924</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>99</v>
@@ -1436,7 +1436,7 @@
         <v>101</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -1514,22 +1514,22 @@
         <v>0</v>
       </c>
       <c r="AR4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AU4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="AW4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AX4">
         <v>13</v>
@@ -1561,7 +1561,7 @@
         <v>45945.568757233799</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>99</v>
@@ -1588,7 +1588,7 @@
         <v>101</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -1666,22 +1666,22 @@
         <v>1</v>
       </c>
       <c r="AR5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AS5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="AV5" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AX5">
         <v>11</v>
@@ -1713,7 +1713,7 @@
         <v>45945.598270902781</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>99</v>
@@ -1740,7 +1740,7 @@
         <v>101</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1818,22 +1818,22 @@
         <v>1</v>
       </c>
       <c r="AR6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="AX6">
         <v>14</v>
@@ -1865,7 +1865,7 @@
         <v>45945.676850532407</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>99</v>
@@ -1892,7 +1892,7 @@
         <v>101</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="S7">
         <v>3</v>
@@ -1970,22 +1970,22 @@
         <v>-2</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AX7">
         <v>19</v>
@@ -2017,7 +2017,7 @@
         <v>45945.693708576386</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>99</v>
@@ -2044,7 +2044,7 @@
         <v>101</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="S8">
         <v>2</v>
@@ -2122,22 +2122,22 @@
         <v>0</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AX8">
         <v>16</v>
@@ -2169,7 +2169,7 @@
         <v>45946.608792812498</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>99</v>
@@ -2196,7 +2196,7 @@
         <v>101</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -2274,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AU9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AW9" s="2" t="s">
         <v>99</v>
@@ -2321,7 +2321,7 @@
         <v>45951.542666111112</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>99</v>
@@ -2348,7 +2348,7 @@
         <v>101</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -2426,22 +2426,22 @@
         <v>0</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="AX10">
         <v>13</v>
@@ -2473,7 +2473,7 @@
         <v>45951.564569722221</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>99</v>
@@ -2500,7 +2500,7 @@
         <v>101</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -2578,22 +2578,22 @@
         <v>1</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AX11">
         <v>12</v>
@@ -2625,7 +2625,7 @@
         <v>45951.64237105324</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>99</v>
@@ -2652,7 +2652,7 @@
         <v>101</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="S12">
         <v>2</v>
@@ -2730,22 +2730,22 @@
         <v>0</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AX12">
         <v>15</v>
@@ -2777,7 +2777,7 @@
         <v>45952.606188703707</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>99</v>
@@ -2804,7 +2804,7 @@
         <v>101</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -2882,22 +2882,22 @@
         <v>0</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AU13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AX13">
         <v>13</v>
@@ -2929,7 +2929,7 @@
         <v>45952.624943368057</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>99</v>
@@ -2956,7 +2956,7 @@
         <v>101</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -3034,22 +3034,22 @@
         <v>2</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AX14">
         <v>13</v>
@@ -3059,7 +3059,7 @@
   <autoFilter ref="A2:AX15" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C4 D1:D4 G1:G4 I1:I4 J1:J4 K1:K4 L1:L4 M1:M4 P1:P4 Q1:Q4 R1:R4 AR1:AR4 AS1:AS4 AT1:AT4 AU1:AU4 AV1:AV4 AW1:AW4 C5:C14 D5:D14 G5:G14 I5:I14 J5:J14 K5:K14 L5:L14 M5:M14 P5:P14 Q5:Q14 R5:R14 AR5:AR14 AS5:AS14 AT5:AT14 AU5:AU14 AV5:AV14 AW5:AW14" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C4 D1:D4 G1:G4 I1:I4 J1:J4 K1:K4 L1:L4 M1:M4 P1:P4 Q1:Q4 R1:R2 AR1:AR4 AS1:AS4 AT1:AT4 AU1:AU4 AV1:AV4 AW1:AW4 C5:C14 D5:D14 G5:G14 I5:I14 J5:J14 K5:K14 L5:L14 M5:M14 P5:P14 Q5:Q14 AR5:AR14 AS5:AS14 AT5:AT14 AU5:AU14 AV5:AV14 AW5:AW14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>